--- a/medicine/Handicap/La_Belle_Étincelle/La_Belle_Étincelle.xlsx
+++ b/medicine/Handicap/La_Belle_Étincelle/La_Belle_Étincelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Belle Étincelle est un téléfilm franco-belge réalisé en 2023 par Hervé Mimran sur un scénario de Béatrice Fournera et Caroline Franc, et diffusé pour la première fois en France le 5 octobre 2023 sur M6 et en Belgique le 21 décembre 2023 sur La Une.
-Coproduite par Summertime Productions et la RTBF pour M6, cette fiction, qui met en lumière le handicap, est librement inspirée de l'histoire du restaurant éponyme situé dans le 15e arrondissement de Paris[1],[2],[3],[4],[5].
+Coproduite par Summertime Productions et la RTBF pour M6, cette fiction, qui met en lumière le handicap, est librement inspirée de l'histoire du restaurant éponyme situé dans le 15e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Noé, un jeune autiste confectionnant des sandwichs dans un foodtruck, est renvoyé dans sa maison d'accueil spécialisée. Philippe, chef de cuisine renommé, perd à la fois son étoile et son emploi. Virginie, la mère de Noé, veut tenter de monter un restaurant où travailleraient des personnes en situation de handicap ; elle propose à Philippe de participer à cette aventure…
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,19 +557,21 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : La Belle Étincelle
-Réalisation : Hervé Mimran[1],[2],[6],[4]
-Scénario : Béatrice Fournera et Caroline Franc[1],[2],[6],[4]
+Réalisation : Hervé Mimran
+Scénario : Béatrice Fournera et Caroline Franc
 Musique :
 Décors :
 Costumes :
 Photographie :
 Son :
 Montage : Fabrice Dautcourt
-Production : Fabrice Goldstein, Priscilla Siney[1],[4],[5]
-Sociétés de production : Summertime Productions et RTBF[4]
+Production : Fabrice Goldstein, Priscilla Siney
+Sociétés de production : Summertime Productions et RTBF
 Pays de production :  France /  Belgique
 Langue originale : français
 Format : couleur
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bernard Campan : le chef Philippe Lamarck
 Mélanie Doutey : Virginie
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,16 +650,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Un post sur un réseau social est à l'origine du téléfilm : ce message d'un producteur relayant une information sur le restaurant où travaille son fils en situation de handicap inspire un auteur[7]. Le restaurant La Belle Étincelle existe réellement : huit de ses douze employés sont en situation de handicap, pour la plupart autistes[7].
-Le scénario est de la main de Béatrice Fournera et Caroline Franc d'après un texte original de Bernard Jeanjean et Mickael Giunta, et la réalisation est assurée par Hervé Mimran[1],[2],[4],[6],[8].
-La production est assurée par Priscilla Siney et Fabrice Goldstein pour Summertime Productions[1],[5].
-Attribution des rôles
-Le rôle principal est confié au comédien et ex-membre du trio Les Inconnus Bernard Campan, qui incarne ici un chef étoilé[1],[3],[9].
-Parlant des personnes en situation de handicap employées par le restaurant, Bernard Campan précise : « Qu'on les retrouve autour de nous était la seule condition pour que j'accepte de participer à cette belle aventure »[7].
-Le premier rôle féminin est confié à Mélanie Doutey, qui déclare : « Il y a encore tellement à faire en France pour considérer ces personnes hors du commun à leur juste valeur que j'espère que ce téléfilm apportera sa petite pierre à l'édifice »[7].
-Tournage
-Le tournage se déroule du 23 mars au 19 avril 2023 à Maisons-Alfort dans le département français du Val-de-Marne en région Île-de-France[1],[2],[3],[9],[6],[5].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un post sur un réseau social est à l'origine du téléfilm : ce message d'un producteur relayant une information sur le restaurant où travaille son fils en situation de handicap inspire un auteur. Le restaurant La Belle Étincelle existe réellement : huit de ses douze employés sont en situation de handicap, pour la plupart autistes.
+Le scénario est de la main de Béatrice Fournera et Caroline Franc d'après un texte original de Bernard Jeanjean et Mickael Giunta, et la réalisation est assurée par Hervé Mimran.
+La production est assurée par Priscilla Siney et Fabrice Goldstein pour Summertime Productions,.
 </t>
         </is>
       </c>
@@ -652,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Belle_%C3%89tincelle</t>
+          <t>La_Belle_Étincelle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,16 +684,132 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle principal est confié au comédien et ex-membre du trio Les Inconnus Bernard Campan, qui incarne ici un chef étoilé.
+Parlant des personnes en situation de handicap employées par le restaurant, Bernard Campan précise : « Qu'on les retrouve autour de nous était la seule condition pour que j'accepte de participer à cette belle aventure ».
+Le premier rôle féminin est confié à Mélanie Doutey, qui déclare : « Il y a encore tellement à faire en France pour considérer ces personnes hors du commun à leur juste valeur que j'espère que ce téléfilm apportera sa petite pierre à l'édifice ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Belle_Étincelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Belle_%C3%89tincelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage se déroule du 23 mars au 19 avril 2023 à Maisons-Alfort dans le département français du Val-de-Marne en région Île-de-France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Belle_Étincelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Belle_%C3%89tincelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diffusions et audience
-En France, le téléfilm est diffusé par M6 le 5 octobre 2023, suivi d'un documentaire sur l'emploi des personnes en situation de handicap[10]. Ses deux parties sont regardées respectivement par 2 130 000 et 1 980 000 téléspectateurs et permettent à la chaîne de se classer troisième en termes d'audience[11].
-En Belgique, le téléfilm, diffusé le 21 décembre 2023 sur La Une, est regardé par 183 234 téléspectateurs et se classe troisième en termes d'audience[12].
-Accueil critique
-Le film est dans l'ensemble bien accueilli par la critique, à l'instar de Solène Delinger sur Europe 1 qui le trouve émouvant[10]. Ainsi, Thomas Destouches, dans Télé-Loisirs, a apprécié « une belle et rafraîchissante réussite », « une histoire touchante, drôle et inspirante » qui évite la niaiserie et le pathos ; il salue le jeu « remarquable » des acteurs, qu'ils soient professionnels ou amateurs[13]. De son côté, Cécile Jaurès, dans La Croix, si elle déplore « un scénario attendu » et une visée par trop didactique, reconnaît que l'œuvre est attachante et pleine d'une « chaleureuse énergie »[14].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diffusions et audience</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le téléfilm est diffusé par M6 le 5 octobre 2023, suivi d'un documentaire sur l'emploi des personnes en situation de handicap. Ses deux parties sont regardées respectivement par 2 130 000 et 1 980 000 téléspectateurs et permettent à la chaîne de se classer troisième en termes d'audience.
+En Belgique, le téléfilm, diffusé le 21 décembre 2023 sur La Une, est regardé par 183 234 téléspectateurs et se classe troisième en termes d'audience.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Belle_Étincelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Belle_%C3%89tincelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est dans l'ensemble bien accueilli par la critique, à l'instar de Solène Delinger sur Europe 1 qui le trouve émouvant. Ainsi, Thomas Destouches, dans Télé-Loisirs, a apprécié « une belle et rafraîchissante réussite », « une histoire touchante, drôle et inspirante » qui évite la niaiserie et le pathos ; il salue le jeu « remarquable » des acteurs, qu'ils soient professionnels ou amateurs. De son côté, Cécile Jaurès, dans La Croix, si elle déplore « un scénario attendu » et une visée par trop didactique, reconnaît que l'œuvre est attachante et pleine d'une « chaleureuse énergie ».
 </t>
         </is>
       </c>
